--- a/output/3Y_P15_KFSDIV.xlsx
+++ b/output/3Y_P15_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -3733,10 +3736,10 @@
         <v>171548.5363</v>
       </c>
       <c r="K17" s="1">
-        <v>134104.4101</v>
+        <v>134123.4418</v>
       </c>
       <c r="L17" s="1">
-        <v>12.9971</v>
+        <v>12.999</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -3786,10 +3789,10 @@
         <v>166689.9005</v>
       </c>
       <c r="K18" s="1">
-        <v>150397.4577</v>
+        <v>150416.4894</v>
       </c>
       <c r="L18" s="1">
-        <v>13.0978</v>
+        <v>13.0995</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -3839,10 +3842,10 @@
         <v>178572.9907</v>
       </c>
       <c r="K19" s="1">
-        <v>179952.1613</v>
+        <v>179971.193</v>
       </c>
       <c r="L19" s="1">
-        <v>12.958</v>
+        <v>12.9594</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -3892,10 +3895,10 @@
         <v>188356.3227</v>
       </c>
       <c r="K20" s="1">
-        <v>187983.0987</v>
+        <v>188002.1304</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9348</v>
+        <v>12.9361</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -3945,10 +3948,10 @@
         <v>212574.995</v>
       </c>
       <c r="K21" s="1">
-        <v>198208.4972</v>
+        <v>198227.5289</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9073</v>
+        <v>12.9086</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -3998,10 +4001,10 @@
         <v>229563.6248</v>
       </c>
       <c r="K22" s="1">
-        <v>200498.0593</v>
+        <v>200517.091</v>
       </c>
       <c r="L22" s="1">
-        <v>12.9076</v>
+        <v>12.9088</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -4051,10 +4054,10 @@
         <v>247850.0859</v>
       </c>
       <c r="K23" s="1">
-        <v>203512.3258</v>
+        <v>203531.3575</v>
       </c>
       <c r="L23" s="1">
-        <v>12.9143</v>
+        <v>12.9155</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -4104,10 +4107,10 @@
         <v>276766.3709</v>
       </c>
       <c r="K24" s="1">
-        <v>205220.6408</v>
+        <v>205239.6725</v>
       </c>
       <c r="L24" s="1">
-        <v>12.922</v>
+        <v>12.9232</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -4157,10 +4160,10 @@
         <v>298351.7685</v>
       </c>
       <c r="K25" s="1">
-        <v>203381.5863</v>
+        <v>203407.9586</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9082</v>
+        <v>12.9099</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -4210,10 +4213,10 @@
         <v>285037.1965</v>
       </c>
       <c r="K26" s="1">
-        <v>201789.8297</v>
+        <v>201822.561</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8918</v>
+        <v>12.8939</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -4263,10 +4266,10 @@
         <v>306527.1111</v>
       </c>
       <c r="K27" s="1">
-        <v>235237.9641</v>
+        <v>235270.6954</v>
       </c>
       <c r="L27" s="1">
-        <v>13.026</v>
+        <v>13.0278</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -4316,10 +4319,10 @@
         <v>317759.5548</v>
       </c>
       <c r="K28" s="1">
-        <v>240679.8882</v>
+        <v>240712.6195</v>
       </c>
       <c r="L28" s="1">
-        <v>13.0495</v>
+        <v>13.0513</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -4369,10 +4372,10 @@
         <v>326283.4685</v>
       </c>
       <c r="K29" s="1">
-        <v>249460.7904</v>
+        <v>249493.5218</v>
       </c>
       <c r="L29" s="1">
-        <v>13.0875</v>
+        <v>13.0892</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -4422,10 +4425,10 @@
         <v>368881.3878</v>
       </c>
       <c r="K30" s="1">
-        <v>260947.6867</v>
+        <v>260980.418</v>
       </c>
       <c r="L30" s="1">
-        <v>13.1307</v>
+        <v>13.1323</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -4475,10 +4478,10 @@
         <v>379499.2802</v>
       </c>
       <c r="K31" s="1">
-        <v>246824.9197</v>
+        <v>246914.0987</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0225</v>
+        <v>13.0272</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -4528,10 +4531,10 @@
         <v>375421.3437</v>
       </c>
       <c r="K32" s="1">
-        <v>256244.6586</v>
+        <v>256333.8376</v>
       </c>
       <c r="L32" s="1">
-        <v>13.0967</v>
+        <v>13.1012</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -4581,10 +4584,10 @@
         <v>420742.3725</v>
       </c>
       <c r="K33" s="1">
-        <v>280381.3527</v>
+        <v>280470.5317</v>
       </c>
       <c r="L33" s="1">
-        <v>13.219</v>
+        <v>13.2232</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -4634,10 +4637,10 @@
         <v>445409.9881</v>
       </c>
       <c r="K34" s="1">
-        <v>272541.6892</v>
+        <v>272662.1925</v>
       </c>
       <c r="L34" s="1">
-        <v>13.1629</v>
+        <v>13.1687</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -4687,10 +4690,10 @@
         <v>460109.8656</v>
       </c>
       <c r="K35" s="1">
-        <v>267855.3608</v>
+        <v>267994.5769</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1196</v>
+        <v>13.1264</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -4740,10 +4743,10 @@
         <v>497956.2325</v>
       </c>
       <c r="K36" s="1">
-        <v>273176.7244</v>
+        <v>273315.9405</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1716</v>
+        <v>13.1783</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -4793,10 +4796,10 @@
         <v>503503.5358</v>
       </c>
       <c r="K37" s="1">
-        <v>269073.8558</v>
+        <v>269229.4677</v>
       </c>
       <c r="L37" s="1">
-        <v>13.1253</v>
+        <v>13.1329</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -4846,10 +4849,10 @@
         <v>521473.3245</v>
       </c>
       <c r="K38" s="1">
-        <v>283584.5155</v>
+        <v>283740.1274</v>
       </c>
       <c r="L38" s="1">
-        <v>13.2777</v>
+        <v>13.285</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -5773,10 +5776,10 @@
         <v>171819.8361</v>
       </c>
       <c r="K17" s="1">
-        <v>139187.4572</v>
+        <v>139205.5495</v>
       </c>
       <c r="L17" s="1">
-        <v>13.0239</v>
+        <v>13.0256</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -5826,10 +5829,10 @@
         <v>166377.1125</v>
       </c>
       <c r="K18" s="1">
-        <v>156484.1149</v>
+        <v>156502.2072</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1241</v>
+        <v>13.1256</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -5879,10 +5882,10 @@
         <v>178330.3935</v>
       </c>
       <c r="K19" s="1">
-        <v>186901.7193</v>
+        <v>186919.8115</v>
       </c>
       <c r="L19" s="1">
-        <v>12.9808</v>
+        <v>12.9821</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -5932,10 +5935,10 @@
         <v>188099.5339</v>
       </c>
       <c r="K20" s="1">
-        <v>196467.4364</v>
+        <v>196485.5287</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9531</v>
+        <v>12.9543</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -5985,10 +5988,10 @@
         <v>212930.2578</v>
       </c>
       <c r="K21" s="1">
-        <v>206901.7193</v>
+        <v>206919.8115</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9253</v>
+        <v>12.9264</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -6038,10 +6041,10 @@
         <v>230255.8245</v>
       </c>
       <c r="K22" s="1">
-        <v>210602.822</v>
+        <v>210620.9143</v>
       </c>
       <c r="L22" s="1">
-        <v>12.9253</v>
+        <v>12.9264</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -6091,10 +6094,10 @@
         <v>248967.8155</v>
       </c>
       <c r="K23" s="1">
-        <v>214326.2982</v>
+        <v>214344.3904</v>
       </c>
       <c r="L23" s="1">
-        <v>12.9329</v>
+        <v>12.934</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -6144,10 +6147,10 @@
         <v>278889.8141</v>
       </c>
       <c r="K24" s="1">
-        <v>216713.1606</v>
+        <v>216731.2529</v>
       </c>
       <c r="L24" s="1">
-        <v>12.9429</v>
+        <v>12.944</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -6197,10 +6200,10 @@
         <v>301135.2788</v>
       </c>
       <c r="K25" s="1">
-        <v>215393.5297</v>
+        <v>215416.8893</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9337</v>
+        <v>12.9351</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -6250,10 +6253,10 @@
         <v>286429.6475</v>
       </c>
       <c r="K26" s="1">
-        <v>214359.4541</v>
+        <v>214386.9448</v>
       </c>
       <c r="L26" s="1">
-        <v>12.9237</v>
+        <v>12.9254</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -6303,10 +6306,10 @@
         <v>308614.7642</v>
       </c>
       <c r="K27" s="1">
-        <v>250480.9206</v>
+        <v>250508.4112</v>
       </c>
       <c r="L27" s="1">
-        <v>13.0558</v>
+        <v>13.0572</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -6356,10 +6359,10 @@
         <v>319924.6433</v>
       </c>
       <c r="K28" s="1">
-        <v>256969.3607</v>
+        <v>256996.8514</v>
       </c>
       <c r="L28" s="1">
-        <v>13.0814</v>
+        <v>13.0828</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -6409,10 +6412,10 @@
         <v>328345.6435</v>
       </c>
       <c r="K29" s="1">
-        <v>267058.4702</v>
+        <v>267085.9609</v>
       </c>
       <c r="L29" s="1">
-        <v>13.1212</v>
+        <v>13.1225</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -6462,10 +6465,10 @@
         <v>373215.9948</v>
       </c>
       <c r="K30" s="1">
-        <v>280090.746</v>
+        <v>280118.2367</v>
       </c>
       <c r="L30" s="1">
-        <v>13.1655</v>
+        <v>13.1668</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -6515,10 +6518,10 @@
         <v>383879.1508</v>
       </c>
       <c r="K31" s="1">
-        <v>265768.7847</v>
+        <v>265853.5193</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0649</v>
+        <v>13.0691</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -6568,10 +6571,10 @@
         <v>378728.083</v>
       </c>
       <c r="K32" s="1">
-        <v>276705.54</v>
+        <v>276790.2746</v>
       </c>
       <c r="L32" s="1">
-        <v>13.1435</v>
+        <v>13.1475</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -6621,10 +6624,10 @@
         <v>426779.1642</v>
       </c>
       <c r="K33" s="1">
-        <v>303534.0556</v>
+        <v>303618.7901</v>
       </c>
       <c r="L33" s="1">
-        <v>13.2658</v>
+        <v>13.2695</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -6674,10 +6677,10 @@
         <v>452642.4764</v>
       </c>
       <c r="K34" s="1">
-        <v>295965.0419</v>
+        <v>296080.0193</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2168</v>
+        <v>13.2219</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -6727,10 +6730,10 @@
         <v>467738.5204</v>
       </c>
       <c r="K35" s="1">
-        <v>291815.5919</v>
+        <v>291947.1383</v>
       </c>
       <c r="L35" s="1">
-        <v>13.182</v>
+        <v>13.1879</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -6780,10 +6783,10 @@
         <v>507967.5473</v>
       </c>
       <c r="K36" s="1">
-        <v>298535.4547</v>
+        <v>298667.0011</v>
       </c>
       <c r="L36" s="1">
-        <v>13.2413</v>
+        <v>13.2472</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -6833,10 +6836,10 @@
         <v>513114.6959</v>
       </c>
       <c r="K37" s="1">
-        <v>295056.5182</v>
+        <v>295201.967</v>
       </c>
       <c r="L37" s="1">
-        <v>13.2059</v>
+        <v>13.2124</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -6886,10 +6889,10 @@
         <v>531767.4677</v>
       </c>
       <c r="K38" s="1">
-        <v>311883.8555</v>
+        <v>312029.3044</v>
       </c>
       <c r="L38" s="1">
-        <v>13.3643</v>
+        <v>13.3705</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -7813,10 +7816,10 @@
         <v>172084.8123</v>
       </c>
       <c r="K17" s="1">
-        <v>144456.9861</v>
+        <v>144474.0253</v>
       </c>
       <c r="L17" s="1">
-        <v>13.0464</v>
+        <v>13.048</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -7866,10 +7869,10 @@
         <v>166029.3841</v>
       </c>
       <c r="K18" s="1">
-        <v>162823.435</v>
+        <v>162840.4742</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1465</v>
+        <v>13.1478</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -7919,10 +7922,10 @@
         <v>178002.8325</v>
       </c>
       <c r="K19" s="1">
-        <v>187238.8488</v>
+        <v>187255.8879</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0281</v>
+        <v>13.0293</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -7972,10 +7975,10 @@
         <v>187770.1295</v>
       </c>
       <c r="K20" s="1">
-        <v>197238.8488</v>
+        <v>197255.8879</v>
       </c>
       <c r="L20" s="1">
-        <v>12.9967</v>
+        <v>12.9978</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -8025,10 +8028,10 @@
         <v>212593.0889</v>
       </c>
       <c r="K21" s="1">
-        <v>207238.8488</v>
+        <v>207255.8879</v>
       </c>
       <c r="L21" s="1">
-        <v>12.9678</v>
+        <v>12.9689</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -8078,10 +8081,10 @@
         <v>230239.3768</v>
       </c>
       <c r="K22" s="1">
-        <v>221722.9452</v>
+        <v>221739.9843</v>
       </c>
       <c r="L22" s="1">
-        <v>12.9651</v>
+        <v>12.9661</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -8131,10 +8134,10 @@
         <v>249404.6904</v>
       </c>
       <c r="K23" s="1">
-        <v>226238.688</v>
+        <v>226255.7272</v>
       </c>
       <c r="L23" s="1">
-        <v>12.9732</v>
+        <v>12.9741</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -8184,10 +8187,10 @@
         <v>280400.575</v>
       </c>
       <c r="K24" s="1">
-        <v>229391.8421</v>
+        <v>229408.8813</v>
       </c>
       <c r="L24" s="1">
-        <v>12.9852</v>
+        <v>12.9861</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -8237,10 +8240,10 @@
         <v>303354.209</v>
       </c>
       <c r="K25" s="1">
-        <v>228675.1945</v>
+        <v>228695.0942</v>
       </c>
       <c r="L25" s="1">
-        <v>12.9805</v>
+        <v>12.9816</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -8290,10 +8293,10 @@
         <v>287151.0929</v>
       </c>
       <c r="K26" s="1">
-        <v>228291.6585</v>
+        <v>228313.0904</v>
       </c>
       <c r="L26" s="1">
-        <v>12.9771</v>
+        <v>12.9783</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -8343,10 +8346,10 @@
         <v>310085.413</v>
       </c>
       <c r="K27" s="1">
-        <v>267348.0781</v>
+        <v>267369.5101</v>
       </c>
       <c r="L27" s="1">
-        <v>13.1041</v>
+        <v>13.1051</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -8396,10 +8399,10 @@
         <v>321478.9849</v>
       </c>
       <c r="K28" s="1">
-        <v>275029.1325</v>
+        <v>275050.5644</v>
       </c>
       <c r="L28" s="1">
-        <v>13.1313</v>
+        <v>13.1323</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -8449,10 +8452,10 @@
         <v>329787.8165</v>
       </c>
       <c r="K29" s="1">
-        <v>286603.6887</v>
+        <v>286625.1206</v>
       </c>
       <c r="L29" s="1">
-        <v>13.172</v>
+        <v>13.173</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -8502,10 +8505,10 @@
         <v>377135.4009</v>
       </c>
       <c r="K30" s="1">
-        <v>301389.7756</v>
+        <v>301411.2075</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2167</v>
+        <v>13.2176</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -8555,10 +8558,10 @@
         <v>387848.116</v>
       </c>
       <c r="K31" s="1">
-        <v>286929.5638</v>
+        <v>287008.7921</v>
       </c>
       <c r="L31" s="1">
-        <v>13.1243</v>
+        <v>13.1279</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -8608,10 +8611,10 @@
         <v>381517.7651</v>
       </c>
       <c r="K32" s="1">
-        <v>299612.5551</v>
+        <v>299691.7835</v>
       </c>
       <c r="L32" s="1">
-        <v>13.2068</v>
+        <v>13.2103</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -8661,10 +8664,10 @@
         <v>432573.0198</v>
       </c>
       <c r="K33" s="1">
-        <v>329490.0419</v>
+        <v>329569.2703</v>
       </c>
       <c r="L33" s="1">
-        <v>13.3276</v>
+        <v>13.3308</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -8714,10 +8717,10 @@
         <v>459758.9128</v>
       </c>
       <c r="K34" s="1">
-        <v>322317.7519</v>
+        <v>322425.638</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2859</v>
+        <v>13.2903</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -8767,10 +8770,10 @@
         <v>475294.6576</v>
       </c>
       <c r="K35" s="1">
-        <v>318867.4886</v>
+        <v>318989.1517</v>
       </c>
       <c r="L35" s="1">
-        <v>13.2599</v>
+        <v>13.2649</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -8820,10 +8823,10 @@
         <v>518172.3693</v>
       </c>
       <c r="K36" s="1">
-        <v>327252.1133</v>
+        <v>327373.7764</v>
       </c>
       <c r="L36" s="1">
-        <v>13.3262</v>
+        <v>13.3312</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -8873,10 +8876,10 @@
         <v>522872.3529</v>
       </c>
       <c r="K37" s="1">
-        <v>324588.1499</v>
+        <v>324720.4587</v>
       </c>
       <c r="L37" s="1">
-        <v>13.3019</v>
+        <v>13.3074</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -8926,10 +8929,10 @@
         <v>542284.1446</v>
       </c>
       <c r="K38" s="1">
-        <v>344132.263</v>
+        <v>344264.5719</v>
       </c>
       <c r="L38" s="1">
-        <v>13.4656</v>
+        <v>13.4708</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.1788</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.5668</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.962</v>
@@ -9853,10 +9856,10 @@
         <v>172199.9518</v>
       </c>
       <c r="K17" s="1">
-        <v>150126.102</v>
+        <v>150135.3454</v>
       </c>
       <c r="L17" s="1">
-        <v>13.0828</v>
+        <v>13.0836</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.2659</v>
@@ -9906,10 +9909,10 @@
         <v>165501.7415</v>
       </c>
       <c r="K18" s="1">
-        <v>169632.7282</v>
+        <v>169641.9716</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1811</v>
+        <v>13.1818</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.4103</v>
@@ -9959,10 +9962,10 @@
         <v>177495.063</v>
       </c>
       <c r="K19" s="1">
-        <v>187594.828</v>
+        <v>187604.0714</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0903</v>
+        <v>13.0909</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.3976</v>
@@ -10012,10 +10015,10 @@
         <v>187262.8807</v>
       </c>
       <c r="K20" s="1">
-        <v>197594.828</v>
+        <v>197604.0714</v>
       </c>
       <c r="L20" s="1">
-        <v>13.0555</v>
+        <v>13.0561</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.9013</v>
@@ -10065,10 +10068,10 @@
         <v>212046.7821</v>
       </c>
       <c r="K21" s="1">
-        <v>207594.828</v>
+        <v>207604.0714</v>
       </c>
       <c r="L21" s="1">
-        <v>13.0235</v>
+        <v>13.0241</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.3527</v>
@@ -10118,10 +10121,10 @@
         <v>229746.378</v>
       </c>
       <c r="K22" s="1">
-        <v>224405.5981</v>
+        <v>224414.8415</v>
       </c>
       <c r="L22" s="1">
-        <v>13.0162</v>
+        <v>13.0168</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8804</v>
@@ -10171,10 +10174,10 @@
         <v>249178.8052</v>
       </c>
       <c r="K23" s="1">
-        <v>234405.5981</v>
+        <v>234414.8415</v>
       </c>
       <c r="L23" s="1">
-        <v>13.0313</v>
+        <v>13.0318</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6268</v>
@@ -10224,10 +10227,10 @@
         <v>281132.0183</v>
       </c>
       <c r="K24" s="1">
-        <v>243639.5062</v>
+        <v>243648.7496</v>
       </c>
       <c r="L24" s="1">
-        <v>13.0625</v>
+        <v>13.063</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3636</v>
@@ -10277,10 +10280,10 @@
         <v>304845.6754</v>
       </c>
       <c r="K25" s="1">
-        <v>243619.479</v>
+        <v>243628.8023</v>
       </c>
       <c r="L25" s="1">
-        <v>13.0624</v>
+        <v>13.0629</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8711</v>
@@ -10330,10 +10333,10 @@
         <v>287028.4292</v>
       </c>
       <c r="K26" s="1">
-        <v>243991.078</v>
+        <v>244000.4013</v>
       </c>
       <c r="L26" s="1">
-        <v>13.0654</v>
+        <v>13.0659</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1252</v>
@@ -10383,10 +10386,10 @@
         <v>310716.7175</v>
       </c>
       <c r="K27" s="1">
-        <v>282500.0609</v>
+        <v>282509.3842</v>
       </c>
       <c r="L27" s="1">
-        <v>13.1731</v>
+        <v>13.1735</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1934</v>
@@ -10436,10 +10439,10 @@
         <v>322185.4555</v>
       </c>
       <c r="K28" s="1">
-        <v>295377.9944</v>
+        <v>295387.3177</v>
       </c>
       <c r="L28" s="1">
-        <v>13.213</v>
+        <v>13.2134</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1176</v>
@@ -10489,10 +10492,10 @@
         <v>330371.9657</v>
       </c>
       <c r="K29" s="1">
-        <v>308637.902</v>
+        <v>308647.2254</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2534</v>
+        <v>13.2538</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3311</v>
@@ -10542,10 +10545,10 @@
         <v>380053.4775</v>
       </c>
       <c r="K30" s="1">
-        <v>320903.6143</v>
+        <v>320912.9376</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2854</v>
+        <v>13.2858</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3637</v>
@@ -10595,10 +10598,10 @@
         <v>390820.4886</v>
       </c>
       <c r="K31" s="1">
-        <v>311278.0268</v>
+        <v>311325.8229</v>
       </c>
       <c r="L31" s="1">
-        <v>13.2301</v>
+        <v>13.2322</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6447</v>
@@ -10648,10 +10651,10 @@
         <v>383193.3123</v>
       </c>
       <c r="K32" s="1">
-        <v>325969.5124</v>
+        <v>326017.3085</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3145</v>
+        <v>13.3165</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.486</v>
@@ -10701,10 +10704,10 @@
         <v>437556.7514</v>
       </c>
       <c r="K33" s="1">
-        <v>359301.9109</v>
+        <v>359349.707</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4299</v>
+        <v>13.4317</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.1958</v>
@@ -10754,10 +10757,10 @@
         <v>466206.7567</v>
       </c>
       <c r="K34" s="1">
-        <v>352678.2116</v>
+        <v>352752.4735</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3961</v>
+        <v>13.3989</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4264</v>
@@ -10807,10 +10810,10 @@
         <v>482230.9475</v>
       </c>
       <c r="K35" s="1">
-        <v>350121.2393</v>
+        <v>350205.7113</v>
       </c>
       <c r="L35" s="1">
-        <v>13.379</v>
+        <v>13.3823</v>
       </c>
       <c r="M35" s="1">
         <v>0.75</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>17.107</v>
@@ -10860,10 +10863,10 @@
         <v>528055.7484</v>
       </c>
       <c r="K36" s="1">
-        <v>360483.2019</v>
+        <v>360567.6739</v>
       </c>
       <c r="L36" s="1">
-        <v>13.4514</v>
+        <v>13.4546</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.8894</v>
@@ -10913,10 +10916,10 @@
         <v>532255.5273</v>
       </c>
       <c r="K37" s="1">
-        <v>358864.8661</v>
+        <v>358955.8053</v>
       </c>
       <c r="L37" s="1">
-        <v>13.4384</v>
+        <v>13.4418</v>
       </c>
       <c r="M37" s="1">
         <v>1</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4004</v>
@@ -10966,10 +10969,10 @@
         <v>552511.5527999999</v>
       </c>
       <c r="K38" s="1">
-        <v>381594.6951</v>
+        <v>381685.6343</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6052</v>
+        <v>13.6085</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.2148</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2777</v>
+        <v>13.285</v>
       </c>
       <c r="E3" s="1">
-        <v>13.3643</v>
+        <v>13.3705</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4656</v>
+        <v>13.4708</v>
       </c>
       <c r="G3" s="1">
-        <v>13.6052</v>
+        <v>13.6085</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>115124.7402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2115</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.8379</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.7042</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5752</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4476</v>
       </c>
     </row>
   </sheetData>
